--- a/Asum Project/results/fail.xlsx
+++ b/Asum Project/results/fail.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umberto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Bicocca\_Università\Laurea Magistrale\1° Anno\2\Data Analytics\Progetto\Nuova cartella\Sentiment-Analysis-for-Amazon-Reviews\Asum Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A89C456-2224-4ADC-B970-FAC64EE23F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF57FB91-AD7D-4570-BF01-09F61F96F23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio3" sheetId="4" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="4" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="3" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="2" hidden="1">Foglio1!$A$1:$T$102</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="2" hidden="1">Foglio3!$A$1:$T$102</definedName>
     <definedName name="DatiEsterni_2" localSheetId="1" hidden="1">Foglio2!$A$1:$J$102</definedName>
-    <definedName name="DatiEsterni_3" localSheetId="0" hidden="1">Foglio3!$A$1:$F$102</definedName>
+    <definedName name="DatiEsterni_3" localSheetId="0" hidden="1">Foglio1!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords;Extended Properties=&quot;&quot;" command="SELECT * FROM [STO2-T10-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords;Extended Properties=&quot;&quot;" command="SELECT * FROM [STO2-T3-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Query - STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords" description="Connessione alla query 'STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords' nella cartella di lavoro." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords;Extended Properties=&quot;&quot;" command="SELECT * FROM [STO2-T5-S2(2)-A0 1-B0 001,0 1,0 0-G0 9,0 1-I1000-ProbWords]"/>
   </connection>
 </connections>
@@ -7099,7 +7099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7748,7 +7748,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatiEsterni_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_3" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -7772,7 +7772,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatiEsterni_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_2" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="22">
     <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -7804,7 +7804,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatiEsterni_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="42">
     <queryTableFields count="20">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -7856,63 +7856,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="STO2_T3_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T3_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:F102" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="STO2_T3_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T3_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:F102" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="STO2_T5_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T5_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:J102" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="STO2_T5_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T5_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:J102" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J102" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="7"/>
-    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="STO2_T10_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T10_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:T102" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="STO2_T10_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" displayName="STO2_T10_S2_2__A0_1_B0_001_0_1_0_0_G0_9_0_1_I1000_ProbWords" ref="A1:T102" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="34"/>
-    <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="33"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="32"/>
-    <tableColumn id="5" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="31"/>
-    <tableColumn id="6" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="30"/>
-    <tableColumn id="7" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="29"/>
-    <tableColumn id="8" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="28"/>
-    <tableColumn id="9" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="27"/>
-    <tableColumn id="10" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="26"/>
-    <tableColumn id="11" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="25"/>
-    <tableColumn id="12" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="24"/>
-    <tableColumn id="13" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="23"/>
-    <tableColumn id="14" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="22"/>
-    <tableColumn id="15" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="21"/>
-    <tableColumn id="16" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="20"/>
-    <tableColumn id="17" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="19"/>
-    <tableColumn id="18" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="18"/>
-    <tableColumn id="19" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="17"/>
-    <tableColumn id="20" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8214,10 +8214,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -10279,7 +10279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13573,10 +13573,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
